--- a/tests/data/0812.xlsx
+++ b/tests/data/0812.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/work/kurrawong/VocExcel/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C63CFD-23CE-DA4B-BF16-92E8998E7934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5987F3-348E-354A-BAB0-A832DB593E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1200" windowWidth="37880" windowHeight="28040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="760" windowWidth="37880" windowHeight="28040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -1633,9 +1633,6 @@
 Consider using opaque, universally unique IDs within the IRI, generated by https://www.uuidgenerator.net.</t>
   </si>
   <si>
-    <t>0.8.10</t>
-  </si>
-  <si>
     <t>Example Workbook:</t>
   </si>
   <si>
@@ -1676,9 +1673,6 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>Made for testing the 0.8.10 template</t>
-  </si>
-  <si>
     <t>Rock Types</t>
   </si>
   <si>
@@ -1731,6 +1725,12 @@
   </si>
   <si>
     <t>http://example.com/voc/rock-types/metamorphic</t>
+  </si>
+  <si>
+    <t>Made for testing the 0.8.12 template</t>
+  </si>
+  <si>
+    <t>0.8.12</t>
   </si>
 </sst>
 </file>
@@ -2198,6 +2198,12 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2212,12 +2218,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2440,8 +2440,8 @@
   </sheetPr>
   <dimension ref="A1:K986"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -2513,10 +2513,10 @@
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="40" t="s">
         <v>188</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>189</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
@@ -3949,7 +3949,7 @@
         <v>13</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.15">
@@ -4112,7 +4112,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4124,12 +4124,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
     </row>
     <row r="2" spans="1:4" s="36" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -4150,7 +4150,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>56</v>
@@ -4164,7 +4164,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>23</v>
@@ -4178,7 +4178,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>54</v>
@@ -4220,7 +4220,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>155</v>
@@ -4234,7 +4234,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>156</v>
@@ -4260,7 +4260,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>120</v>
@@ -4274,7 +4274,7 @@
         <v>67</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>118</v>
@@ -7312,9 +7312,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B2936F-06B6-364A-893D-D48542B6FA7F}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="A4:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
@@ -7333,16 +7333,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
@@ -7421,69 +7421,69 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="20" x14ac:dyDescent="0.15">
-      <c r="A4" s="69" t="s">
-        <v>197</v>
+      <c r="A4" s="64" t="s">
+        <v>195</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E4" s="20"/>
       <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:12" ht="40" x14ac:dyDescent="0.15">
-      <c r="A5" s="69" t="s">
-        <v>213</v>
+      <c r="A5" s="64" t="s">
+        <v>211</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.15">
+      <c r="A6" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.15">
-      <c r="A6" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="D6" s="21" t="s">
         <v>200</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>202</v>
       </c>
       <c r="G6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:12" ht="38" x14ac:dyDescent="0.2">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="D7" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>210</v>
-      </c>
       <c r="G7" s="62"/>
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
+      <c r="A8" s="65"/>
       <c r="D8" s="21"/>
       <c r="G8" s="62"/>
     </row>
@@ -7788,16 +7788,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
     </row>
     <row r="2" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -7936,13 +7936,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -9326,11 +9326,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
@@ -9434,11 +9434,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="25" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
